--- a/medicine/Psychotrope/Tully's_Coffee/Tully's_Coffee.xlsx
+++ b/medicine/Psychotrope/Tully's_Coffee/Tully's_Coffee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tully%27s_Coffee</t>
+          <t>Tully's_Coffee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tully's Coffee est un revendeur de café basé à Seattle aux États-Unis. Les magasins servent des cafés, des expresso, des pâtisseries et des articles à base de café. La chaîne est connue pour sa stratégie visant à s'installer à proximité de son concurrent Starbucks, qui est aussi basé à Seattle.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tully%27s_Coffee</t>
+          <t>Tully's_Coffee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tully's a ouvert son premier magasin dans la localité de Kent dans l'État de Washington en 1992. Le fondateur de la chaîne Tom Tully O'Keefe a planifié de rivaliser rapidement avec Starbucks coffee. En 2006, la chaîne a engrangé son premier bénéfice net. Récemment le président de la chaîne et du CEO a indiqué que l'objectif n'était plus de concurrencer Starbucks mais de servir le meilleur café à emporter.
 Il existe plus de 100 magasins dans l'ouest des USA et même à Stockholm, en Corée du Sud et au Japon.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tully%27s_Coffee</t>
+          <t>Tully's_Coffee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Boissons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les boissons sont fournies en format petit, moyen, grand et super grand.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tully%27s_Coffee</t>
+          <t>Tully's_Coffee</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Wifi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis le 14 janvier 2007, certains magasins de la chaîne proposent une connexion internet Wifi gratuite.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tully%27s_Coffee</t>
+          <t>Tully's_Coffee</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tully's Coffee
  Portail des entreprises   Portail du café   Portail de Seattle                   </t>
